--- a/SPMEDGROUP_MODELO_LOGICO.xlsx
+++ b/SPMEDGROUP_MODELO_LOGICO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Nome</t>
   </si>
@@ -127,6 +127,30 @@
   </si>
   <si>
     <t>Cancelada</t>
+  </si>
+  <si>
+    <t>ID_clinica</t>
+  </si>
+  <si>
+    <t>Clinica</t>
+  </si>
+  <si>
+    <t>Nome_Fantasia</t>
+  </si>
+  <si>
+    <t>Razao_Social</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>rua tal</t>
   </si>
 </sst>
 </file>
@@ -582,16 +606,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:V21"/>
+  <dimension ref="C2:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -646,7 +672,9 @@
       <c r="N4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="18"/>
+      <c r="O4" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="Q4" s="4" t="s">
         <v>3</v>
       </c>
@@ -684,7 +712,9 @@
       <c r="N5" s="8">
         <v>1</v>
       </c>
-      <c r="O5" s="9"/>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
       <c r="Q5" s="7">
         <v>1</v>
       </c>
@@ -757,13 +787,19 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="O10" s="2" t="s">
+      <c r="J10" s="13"/>
+      <c r="K10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
+      <c r="R10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="S10" s="3"/>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
@@ -781,13 +817,31 @@
       <c r="G11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="O11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="K11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -807,13 +861,31 @@
       <c r="G12" s="12">
         <v>2</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="O12" s="10">
-        <v>1</v>
-      </c>
-      <c r="P12" s="11" t="s">
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="11">
+        <v>111111</v>
+      </c>
+      <c r="M12" s="11">
+        <v>112212121</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="20">
+        <v>33228</v>
+      </c>
+      <c r="P12" s="12">
+        <v>1</v>
+      </c>
+      <c r="R12" s="10">
+        <v>1</v>
+      </c>
+      <c r="S12" s="12" t="s">
         <v>30</v>
       </c>
       <c r="V12" s="21"/>
@@ -826,63 +898,58 @@
       <c r="P13" s="1"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V14" s="8"/>
     </row>
-    <row r="18" spans="10:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C15" s="13"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="11">
+        <v>12121</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J19" s="22"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="10:18" x14ac:dyDescent="0.3">
-      <c r="L20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R20" s="6"/>
-    </row>
-    <row r="21" spans="10:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L21" s="10">
-        <v>1</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="11">
-        <v>111111</v>
-      </c>
-      <c r="O21" s="11">
-        <v>112212121</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="20">
-        <v>33228</v>
-      </c>
-      <c r="R21" s="12"/>
+      <c r="M19" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
